--- a/02_config/scenario_pv_60_hp_60_ev_60_summer/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_summer/agents.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge23nur\LRZ Sync+Share\Thesis - Claudio Lex\02 - Data\Scenarios_NEW\configs\scenario_pv_60_hp_60_ev_60_summer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4992A2B0-6E58-4AE4-B30A-8C91BE4A1D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sfh" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1555,8 +1561,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1619,13 +1625,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1663,7 +1677,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1697,6 +1711,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1731,9 +1746,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1906,14 +1922,306 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:KC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="CP1" workbookViewId="0">
+      <selection activeCell="DD2" sqref="DD2:DD40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="31" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="34" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="33.90625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="27" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="18" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="17" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="9" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="22" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="22" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="19" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="20" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="24" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="14" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="24" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="14" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="40.6328125" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="233" max="234" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="19" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="33.08984375" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="32" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="24" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="14" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="24" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:289">
+    <row r="1" spans="1:289" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2779,7 +3087,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:289">
+    <row r="2" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2961,7 +3269,7 @@
         <v>60</v>
       </c>
       <c r="DD2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE2" t="s">
         <v>366</v>
@@ -3306,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:289">
+    <row r="3" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3473,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="DD3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="s">
         <v>366</v>
@@ -3728,7 +4036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:289">
+    <row r="4" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3895,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="DD4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE4" t="s">
         <v>366</v>
@@ -4150,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:289">
+    <row r="5" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4332,7 +4640,7 @@
         <v>51</v>
       </c>
       <c r="DD5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="s">
         <v>366</v>
@@ -4737,7 +5045,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="6" spans="1:289">
+    <row r="6" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4904,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="DD6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="s">
         <v>366</v>
@@ -5159,7 +5467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:289">
+    <row r="7" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5341,7 +5649,7 @@
         <v>50</v>
       </c>
       <c r="DD7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE7" t="s">
         <v>366</v>
@@ -5686,7 +5994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:289">
+    <row r="8" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5868,7 +6176,7 @@
         <v>90</v>
       </c>
       <c r="DD8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE8" t="s">
         <v>366</v>
@@ -6252,7 +6560,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="9" spans="1:289">
+    <row r="9" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6434,7 +6742,7 @@
         <v>46</v>
       </c>
       <c r="DD9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE9" t="s">
         <v>366</v>
@@ -6806,7 +7114,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:289">
+    <row r="10" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6973,7 +7281,7 @@
         <v>0</v>
       </c>
       <c r="DD10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="s">
         <v>366</v>
@@ -7228,7 +7536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:289">
+    <row r="11" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7395,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="DD11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE11" t="s">
         <v>366</v>
@@ -7650,7 +7958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:289">
+    <row r="12" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7817,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="DD12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE12" t="s">
         <v>366</v>
@@ -8072,7 +8380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:289">
+    <row r="13" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -8239,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="DD13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE13" t="s">
         <v>366</v>
@@ -8494,7 +8802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:289">
+    <row r="14" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8661,7 +8969,7 @@
         <v>0</v>
       </c>
       <c r="DD14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE14" t="s">
         <v>366</v>
@@ -8916,7 +9224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:289">
+    <row r="15" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -9098,7 +9406,7 @@
         <v>49</v>
       </c>
       <c r="DD15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE15" t="s">
         <v>366</v>
@@ -9416,7 +9724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:289">
+    <row r="16" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9583,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="DD16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE16" t="s">
         <v>366</v>
@@ -9838,7 +10146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:289">
+    <row r="17" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10020,7 +10328,7 @@
         <v>45</v>
       </c>
       <c r="DD17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE17" t="s">
         <v>366</v>
@@ -10338,7 +10646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:289">
+    <row r="18" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10520,7 +10828,7 @@
         <v>50</v>
       </c>
       <c r="DD18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE18" t="s">
         <v>366</v>
@@ -10865,7 +11173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:289">
+    <row r="19" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -11047,7 +11355,7 @@
         <v>50</v>
       </c>
       <c r="DD19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE19" t="s">
         <v>366</v>
@@ -11365,7 +11673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:289">
+    <row r="20" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -11532,7 +11840,7 @@
         <v>0</v>
       </c>
       <c r="DD20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE20" t="s">
         <v>366</v>
@@ -11787,7 +12095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:289">
+    <row r="21" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -11954,7 +12262,7 @@
         <v>0</v>
       </c>
       <c r="DD21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE21" t="s">
         <v>366</v>
@@ -12209,7 +12517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:289">
+    <row r="22" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -12376,7 +12684,7 @@
         <v>0</v>
       </c>
       <c r="DD22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE22" t="s">
         <v>366</v>
@@ -12631,7 +12939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:289">
+    <row r="23" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -12813,7 +13121,7 @@
         <v>90</v>
       </c>
       <c r="DD23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE23" t="s">
         <v>366</v>
@@ -13197,7 +13505,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="24" spans="1:289">
+    <row r="24" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -13379,7 +13687,7 @@
         <v>41</v>
       </c>
       <c r="DD24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE24" t="s">
         <v>366</v>
@@ -13697,7 +14005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:289">
+    <row r="25" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -13879,7 +14187,7 @@
         <v>71</v>
       </c>
       <c r="DD25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE25" t="s">
         <v>366</v>
@@ -14197,7 +14505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:289">
+    <row r="26" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -14364,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="DD26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE26" t="s">
         <v>366</v>
@@ -14619,7 +14927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:289">
+    <row r="27" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -14801,7 +15109,7 @@
         <v>52</v>
       </c>
       <c r="DD27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE27" t="s">
         <v>366</v>
@@ -15146,7 +15454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:289">
+    <row r="28" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -15328,7 +15636,7 @@
         <v>55</v>
       </c>
       <c r="DD28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE28" t="s">
         <v>366</v>
@@ -15679,7 +15987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:289">
+    <row r="29" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -15861,7 +16169,7 @@
         <v>90</v>
       </c>
       <c r="DD29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE29" t="s">
         <v>366</v>
@@ -16158,7 +16466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:289">
+    <row r="30" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -16340,7 +16648,7 @@
         <v>41</v>
       </c>
       <c r="DD30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE30" t="s">
         <v>366</v>
@@ -16739,7 +17047,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="31" spans="1:289">
+    <row r="31" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -16921,7 +17229,7 @@
         <v>41</v>
       </c>
       <c r="DD31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE31" t="s">
         <v>366</v>
@@ -17326,7 +17634,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="32" spans="1:289">
+    <row r="32" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -17508,7 +17816,7 @@
         <v>65</v>
       </c>
       <c r="DD32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE32" t="s">
         <v>366</v>
@@ -17865,7 +18173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:289">
+    <row r="33" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -18047,7 +18355,7 @@
         <v>39</v>
       </c>
       <c r="DD33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE33" t="s">
         <v>366</v>
@@ -18392,7 +18700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:289">
+    <row r="34" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -18574,7 +18882,7 @@
         <v>52</v>
       </c>
       <c r="DD34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE34" t="s">
         <v>366</v>
@@ -18973,7 +19281,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="35" spans="1:289">
+    <row r="35" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -19140,7 +19448,7 @@
         <v>0</v>
       </c>
       <c r="DD35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE35" t="s">
         <v>366</v>
@@ -19395,7 +19703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:289">
+    <row r="36" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -19562,7 +19870,7 @@
         <v>0</v>
       </c>
       <c r="DD36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE36" t="s">
         <v>366</v>
@@ -19817,7 +20125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:289">
+    <row r="37" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -19999,7 +20307,7 @@
         <v>90</v>
       </c>
       <c r="DD37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE37" t="s">
         <v>366</v>
@@ -20356,7 +20664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:289">
+    <row r="38" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -20538,7 +20846,7 @@
         <v>60</v>
       </c>
       <c r="DD38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE38" t="s">
         <v>366</v>
@@ -20883,7 +21191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:289">
+    <row r="39" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -21065,7 +21373,7 @@
         <v>50</v>
       </c>
       <c r="DD39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE39" t="s">
         <v>366</v>
@@ -21416,7 +21724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:289">
+    <row r="40" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -21583,7 +21891,7 @@
         <v>0</v>
       </c>
       <c r="DD40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE40" t="s">
         <v>366</v>
